--- a/REGULAR/DSWD/SEPINO, MARIE CHIARRE.xlsx
+++ b/REGULAR/DSWD/SEPINO, MARIE CHIARRE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BEFBBE-787C-4DCA-BC48-90686330FEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -199,12 +200,18 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(60-0-0)</t>
+  </si>
+  <si>
+    <t>QATAR 11/13/2023 - 01/26/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1068,7 +1075,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1118,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1182,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1242,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1308,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1371,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1469,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1528,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1593,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1636,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1711,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1897,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1963,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2021,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2087,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2143,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2218,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2261,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2327,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2383,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2481,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2544,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2593,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2603,25 +2610,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K27" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K27" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2633,13 +2640,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2648,14 +2655,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2959,7 +2966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2969,7 +2976,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2977,34 +2984,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3025,7 +3032,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3052,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3074,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3075,7 +3082,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3088,7 +3095,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3105,7 +3112,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3149,7 +3156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.1479999999999997</v>
+        <v>5.3979999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3159,12 +3166,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.167</v>
+        <v>13.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -3186,7 +3193,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44880</v>
       </c>
@@ -3206,7 +3213,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44896</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>53</v>
@@ -3252,7 +3259,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>45</v>
       </c>
@@ -3270,7 +3277,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44927</v>
       </c>
@@ -3290,7 +3297,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44958</v>
       </c>
@@ -3310,7 +3317,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>44986</v>
       </c>
@@ -3330,7 +3337,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>45017</v>
       </c>
@@ -3350,7 +3357,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>45047</v>
       </c>
@@ -3370,7 +3377,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>45078</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>45108</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>45139</v>
       </c>
@@ -3442,7 +3449,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>45170</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -3490,25 +3497,33 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45200</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
+      <c r="F25" s="20">
+        <v>60</v>
+      </c>
+      <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>45231</v>
       </c>
@@ -3526,7 +3541,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>45261</v>
       </c>
@@ -3559,10 +3574,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3585,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -3593,21 +3608,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -3620,7 +3635,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3649,7 +3664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -3673,17 +3688,17 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -3707,10 +3722,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>16.314999999999998</v>
+        <v>18.814999999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -3738,7 +3753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3764,7 +3779,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3790,7 +3805,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3842,7 +3857,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3868,7 +3883,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3894,7 +3909,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3920,7 +3935,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -3980,7 +3995,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4022,7 +4037,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4043,7 +4058,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4064,7 +4079,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4085,7 +4100,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4106,7 +4121,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4127,7 +4142,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4148,7 +4163,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4169,7 +4184,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4190,7 +4205,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4211,7 +4226,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4232,7 +4247,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4253,7 +4268,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4295,7 +4310,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4316,7 +4331,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4337,7 +4352,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4358,7 +4373,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4400,7 +4415,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4409,7 +4424,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4418,7 +4433,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4427,7 +4442,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4436,7 +4451,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4445,7 +4460,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4454,7 +4469,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4463,7 +4478,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4472,7 +4487,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4481,7 +4496,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4490,7 +4505,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4499,7 +4514,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4508,7 +4523,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4517,7 +4532,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4526,7 +4541,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4535,7 +4550,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4544,7 +4559,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4553,7 +4568,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4562,7 +4577,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4571,7 +4586,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4580,7 +4595,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4589,7 +4604,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4598,7 +4613,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4607,7 +4622,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4616,7 +4631,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4625,7 +4640,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4634,7 +4649,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4643,7 +4658,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4652,7 +4667,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4661,7 +4676,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
